--- a/aggregated_datasets/Exp_behavior_antisocial.xlsx
+++ b/aggregated_datasets/Exp_behavior_antisocial.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="375" windowWidth="18915" windowHeight="8205"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="61">
   <si>
     <t>Adachi, P. J. C., &amp; Willoughby, T. (2011). S1</t>
   </si>
@@ -169,13 +169,43 @@
   </si>
   <si>
     <t>Whitaker, J. L., &amp; Bushman, B. J. (2012).</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Comparison</t>
+  </si>
+  <si>
+    <t>Outcome (specific)</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Lower Limit</t>
+  </si>
+  <si>
+    <t>Upper Limit</t>
+  </si>
+  <si>
+    <t>Z-Value</t>
+  </si>
+  <si>
+    <t>p-Value</t>
+  </si>
+  <si>
+    <t>Subgroup w/in study</t>
+  </si>
+  <si>
+    <t>Time point</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +243,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -291,6 +326,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -325,6 +361,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -500,50 +537,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>-0.30393136083262801</v>
-      </c>
-      <c r="F1">
-        <v>0.30393136083262801</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -552,179 +589,179 @@
         <v>2</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>-0.30393136083262801</v>
+      </c>
+      <c r="F2">
+        <v>0.30393136083262801</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>-0.20777673455158299</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>0.28663491904517202</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>0.32572664699043302</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>0.74463118141151197</v>
       </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>0.217036867198658</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E4" s="1">
         <v>3.2602219209474301E-2</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>0.387177051359062</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>2.3000992579187902</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H4" s="1">
         <v>2.1442597319576401E-2</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>0.19777048152941101</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="1">
         <v>-6.8702147019792797E-2</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>0.43790271476919002</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>1.4590156539205299</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>0.14456079924068199</v>
       </c>
-      <c r="J4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <v>5.8151830381515501E-2</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>-8.4976183420247001E-2</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>0.198928480691165</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>0.79571078346816004</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>0.42620015765478803</v>
       </c>
-      <c r="J5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
+      <c r="J6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <v>4.0286691850345599E-2</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>-0.112177890357992</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>0.19089806768002701</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>0.51649419469797897</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>0.605509292501201</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3.09106996232376E-2</v>
-      </c>
-      <c r="E7">
-        <v>-0.20317499631115801</v>
-      </c>
-      <c r="F7">
-        <v>0.26165399911977599</v>
-      </c>
-      <c r="G7">
-        <v>0.25574992095619897</v>
-      </c>
-      <c r="H7">
-        <v>0.79814394532885402</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>
@@ -733,30 +770,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1">
-        <v>-1.89915715916435E-2</v>
+        <v>3.09106996232376E-2</v>
       </c>
       <c r="E8">
-        <v>-0.16409270671963599</v>
+        <v>-0.20317499631115801</v>
       </c>
       <c r="F8">
-        <v>0.126913997221522</v>
+        <v>0.26165399911977599</v>
       </c>
       <c r="G8">
-        <v>-0.25394480118914298</v>
+        <v>0.25574992095619897</v>
       </c>
       <c r="H8">
-        <v>0.79953820263183895</v>
+        <v>0.79814394532885402</v>
       </c>
       <c r="J8" t="s">
         <v>7</v>
@@ -765,521 +802,521 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-1.89915715916435E-2</v>
+      </c>
+      <c r="E9">
+        <v>-0.16409270671963599</v>
+      </c>
+      <c r="F9">
+        <v>0.126913997221522</v>
+      </c>
+      <c r="G9">
+        <v>-0.25394480118914298</v>
+      </c>
+      <c r="H9">
+        <v>0.79953820263183895</v>
+      </c>
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <v>-4.1366524308801202E-2</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>-0.30409435481494701</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>0.22720914745263601</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>-0.297552522816658</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>0.76604471524816697</v>
       </c>
-      <c r="J9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
+      <c r="J10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>0.43481823629979199</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E11" s="1">
         <v>9.2552709738547206E-2</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>0.68518764889776496</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>2.4476806776747901</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H11" s="1">
         <v>1.4377901761432299E-2</v>
       </c>
-      <c r="J10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
+      <c r="J11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>0.38821937833432002</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <v>1.7707064725307701E-2</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>0.66498302891719097</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>2.0485085630336699</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H12" s="1">
         <v>4.0510193915597403E-2</v>
       </c>
-      <c r="J11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
+      <c r="J12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>0.30197010641017102</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="1">
         <v>9.0341256617222795E-2</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>0.48750608220295</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>2.7630011558886101</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H13" s="1">
         <v>5.7272563635972799E-3</v>
       </c>
-      <c r="J12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
+      <c r="J13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1">
-        <v>7.4559401511109194E-2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>4.6992770191063397E-3</v>
-      </c>
-      <c r="F13">
-        <v>0.143695279724986</v>
-      </c>
-      <c r="G13">
-        <v>2.0915447096554201</v>
-      </c>
-      <c r="H13" s="1">
-        <v>3.6479262942834503E-2</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
+        <v>7.4559401511109194E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4.6992770191063397E-3</v>
+      </c>
+      <c r="F14">
+        <v>0.143695279724986</v>
+      </c>
+      <c r="G14">
+        <v>2.0915447096554201</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3.6479262942834503E-2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
         <v>0.16025573286105099</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E15" s="1">
         <v>8.2414647660944799E-3</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>0.30503031905049699</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>2.0652609163595801</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H15" s="1">
         <v>3.8898319468817701E-2</v>
       </c>
-      <c r="J14" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
+      <c r="J15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>0.40632939115030298</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>0.17394860880187199</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>0.59584369276837401</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>3.3081999093801699</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H16" s="1">
         <v>9.3897756805238998E-4</v>
       </c>
-      <c r="J15" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
+      <c r="J16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>28</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>0.359136094885042</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E17" s="1">
         <v>8.6582945986745305E-2</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>0.58167276790598199</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>2.5484430381609302</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H17" s="1">
         <v>1.08204956036377E-2</v>
       </c>
-      <c r="J16" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
+      <c r="J17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>0.222968416</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E18" s="1">
         <v>2.4617831595972899E-2</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>0.40442880218840299</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>2.1986909509002799</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H18" s="1">
         <v>2.7899904833669401E-2</v>
       </c>
-      <c r="J17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
+      <c r="J18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>32</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>0.73201968270769102</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>0.58360512947930798</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>0.83311003918163595</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>6.8970679582396599</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H19" s="1">
         <v>5.3086424145476501E-12</v>
       </c>
-      <c r="J18" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
+      <c r="J19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>34</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>7.2136080234656993E-2</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>-0.30852283709987</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>0.43287986498761299</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>0.36206460939795498</v>
       </c>
-      <c r="H19">
+      <c r="H20">
         <v>0.71730374959935805</v>
       </c>
-      <c r="J19" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
+      <c r="J20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>36</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>0.40584569331961901</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E21" s="1">
         <v>-3.8733831137505399E-2</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>0.71630199726918198</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>1.7981446114534101</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H21" s="1">
         <v>7.2154094251245096E-2</v>
       </c>
-      <c r="J20" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
+      <c r="J21" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>37</v>
       </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
         <v>38</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>0.37935328113544398</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>0.233036431119825</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>0.50887474643631403</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>4.8337976689526299</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H22" s="1">
         <v>1.3395273465999199E-6</v>
       </c>
-      <c r="J21" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
+      <c r="J22" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
         <v>40</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>0.27</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E23" s="1">
         <v>4.8983404432237802E-2</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>0.46580934500263299</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>2.3816726571559799</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H23" s="1">
         <v>1.7234209570607301E-2</v>
       </c>
-      <c r="J22" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
+      <c r="J23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>28</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>0.15768945703450199</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E24" s="1">
         <v>-1.1811361101850401E-2</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>0.31838113495118697</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>1.82444238096207</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H24" s="1">
         <v>6.8085219745289499E-2</v>
       </c>
-      <c r="J23" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
+      <c r="J24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="1">
-        <v>7.8956250786994794E-2</v>
-      </c>
-      <c r="E24">
-        <v>-0.15626034786443199</v>
-      </c>
-      <c r="F24">
-        <v>0.30569800215466603</v>
-      </c>
-      <c r="G24">
-        <v>0.65522811211853904</v>
-      </c>
-      <c r="H24">
-        <v>0.51232089715251405</v>
-      </c>
-      <c r="J24" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>43</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -1287,31 +1324,31 @@
       <c r="C25" t="s">
         <v>7</v>
       </c>
-      <c r="D25">
-        <v>0.25444415937914799</v>
+      <c r="D25" s="1">
+        <v>7.8956250786994794E-2</v>
       </c>
       <c r="E25">
-        <v>0.134050436432126</v>
+        <v>-0.15626034786443199</v>
       </c>
       <c r="F25">
-        <v>0.36743600443657298</v>
+        <v>0.30569800215466603</v>
       </c>
       <c r="G25">
-        <v>4.0695552188612902</v>
-      </c>
-      <c r="H25" s="1">
-        <v>4.71029751487606E-5</v>
+        <v>0.65522811211853904</v>
+      </c>
+      <c r="H25">
+        <v>0.51232089715251405</v>
       </c>
       <c r="J25" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -1320,30 +1357,30 @@
         <v>7</v>
       </c>
       <c r="D26">
-        <v>0.26386883216948398</v>
+        <v>0.25444415937914799</v>
       </c>
       <c r="E26">
-        <v>0.12836236034915</v>
+        <v>0.134050436432126</v>
       </c>
       <c r="F26">
-        <v>0.38970321587039197</v>
+        <v>0.36743600443657298</v>
       </c>
       <c r="G26">
-        <v>3.7517701616141998</v>
+        <v>4.0695552188612902</v>
       </c>
       <c r="H26" s="1">
-        <v>1.7559040239612E-4</v>
+        <v>4.71029751487606E-5</v>
       </c>
       <c r="J26" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -1352,120 +1389,152 @@
         <v>7</v>
       </c>
       <c r="D27">
+        <v>0.26386883216948398</v>
+      </c>
+      <c r="E27">
+        <v>0.12836236034915</v>
+      </c>
+      <c r="F27">
+        <v>0.38970321587039197</v>
+      </c>
+      <c r="G27">
+        <v>3.7517701616141998</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1.7559040239612E-4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
         <v>0.30819904708260598</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>5.4084724193656002E-2</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <v>0.52482136648216604</v>
       </c>
-      <c r="G27">
+      <c r="G28">
         <v>2.3612535750407901</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H28" s="1">
         <v>1.8213272046506201E-2</v>
       </c>
-      <c r="J27" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
+      <c r="J28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>46</v>
       </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
         <v>47</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>0.196113257100091</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E29" s="1">
         <v>9.9939860405145894E-2</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>0.288656142687714</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>3.9570128789965402</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H29" s="1">
         <v>7.5892840531555095E-5</v>
       </c>
-      <c r="J28" t="s">
-        <v>3</v>
-      </c>
-      <c r="K28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
+      <c r="J29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>48</v>
       </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
         <v>49</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>0.144955016659088</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <v>0.42284323431709198</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <v>3.8351530968580398</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H30" s="1">
         <v>1.2548610547602501E-4</v>
       </c>
-      <c r="J29" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
+      <c r="J30" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>50</v>
       </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
         <v>7</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>0.123619410768093</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E31" s="1">
         <v>-4.0671676704106798E-2</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>0.28140204356683002</v>
       </c>
-      <c r="G30">
+      <c r="G31">
         <v>1.47642676648604</v>
       </c>
-      <c r="H30">
+      <c r="H31">
         <v>0.13982936155859499</v>
       </c>
-      <c r="J30" t="s">
-        <v>3</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="J31" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1475,24 +1544,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/aggregated_datasets/Exp_behavior_antisocial.xlsx
+++ b/aggregated_datasets/Exp_behavior_antisocial.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$31</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="66">
   <si>
     <t>Adachi, P. J. C., &amp; Willoughby, T. (2011). S1</t>
   </si>
@@ -199,6 +202,21 @@
   </si>
   <si>
     <t>Time point</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>Cross-section</t>
+  </si>
+  <si>
+    <t>Arousal? Cardiac coherence?</t>
+  </si>
+  <si>
+    <t>Note</t>
   </si>
 </sst>
 </file>
@@ -538,15 +556,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45" customWidth="1"/>
+    <col min="3" max="10" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -571,784 +593,865 @@
       <c r="H1" t="s">
         <v>58</v>
       </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="L1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7.4559401511109194E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4.6992770191063397E-3</v>
+      </c>
+      <c r="F2">
+        <v>0.143695279724986</v>
+      </c>
+      <c r="G2">
+        <v>2.0915447096554201</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3.6479262942834503E-2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E3">
+        <v>0.144955016659088</v>
+      </c>
+      <c r="F3">
+        <v>0.42284323431709198</v>
+      </c>
+      <c r="G3">
+        <v>3.8351530968580398</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.2548610547602501E-4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E4">
         <v>-0.30393136083262801</v>
       </c>
-      <c r="F2">
+      <c r="F4">
         <v>0.30393136083262801</v>
       </c>
-      <c r="G2">
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D5">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E3">
+      <c r="E5">
         <v>-0.20777673455158299</v>
       </c>
-      <c r="F3">
+      <c r="F5">
         <v>0.28663491904517202</v>
       </c>
-      <c r="G3">
+      <c r="G5">
         <v>0.32572664699043302</v>
       </c>
-      <c r="H3">
+      <c r="H5">
         <v>0.74463118141151197</v>
       </c>
-      <c r="J3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <v>0.217036867198658</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E6" s="1">
         <v>3.2602219209474301E-2</v>
       </c>
-      <c r="F4">
+      <c r="F6">
         <v>0.387177051359062</v>
       </c>
-      <c r="G4">
+      <c r="G6">
         <v>2.3000992579187902</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H6" s="1">
         <v>2.1442597319576401E-2</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I6" t="s">
         <v>7</v>
       </c>
-      <c r="K4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="J6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <v>0.19777048152941101</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E7" s="1">
         <v>-6.8702147019792797E-2</v>
       </c>
-      <c r="F5">
+      <c r="F7">
         <v>0.43790271476919002</v>
       </c>
-      <c r="G5">
+      <c r="G7">
         <v>1.4590156539205299</v>
       </c>
-      <c r="H5">
+      <c r="H7">
         <v>0.14456079924068199</v>
       </c>
-      <c r="J5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D8" s="1">
         <v>5.8151830381515501E-2</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>-8.4976183420247001E-2</v>
       </c>
-      <c r="F6">
+      <c r="F8">
         <v>0.198928480691165</v>
       </c>
-      <c r="G6">
+      <c r="G8">
         <v>0.79571078346816004</v>
       </c>
-      <c r="H6">
+      <c r="H8">
         <v>0.42620015765478803</v>
       </c>
-      <c r="J6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D9" s="1">
         <v>4.0286691850345599E-2</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <v>-0.112177890357992</v>
       </c>
-      <c r="F7">
+      <c r="F9">
         <v>0.19089806768002701</v>
       </c>
-      <c r="G7">
+      <c r="G9">
         <v>0.51649419469797897</v>
       </c>
-      <c r="H7">
+      <c r="H9">
         <v>0.605509292501201</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I9" t="s">
         <v>7</v>
       </c>
-      <c r="K7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="J9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D10" s="1">
         <v>3.09106996232376E-2</v>
       </c>
-      <c r="E8">
+      <c r="E10">
         <v>-0.20317499631115801</v>
       </c>
-      <c r="F8">
+      <c r="F10">
         <v>0.26165399911977599</v>
       </c>
-      <c r="G8">
+      <c r="G10">
         <v>0.25574992095619897</v>
       </c>
-      <c r="H8">
+      <c r="H10">
         <v>0.79814394532885402</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I10" t="s">
         <v>7</v>
       </c>
-      <c r="K8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="J10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D11" s="1">
         <v>-1.89915715916435E-2</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>-0.16409270671963599</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <v>0.126913997221522</v>
       </c>
-      <c r="G9">
+      <c r="G11">
         <v>-0.25394480118914298</v>
       </c>
-      <c r="H9">
+      <c r="H11">
         <v>0.79953820263183895</v>
       </c>
-      <c r="J9" t="s">
+      <c r="I11" t="s">
         <v>7</v>
       </c>
-      <c r="K9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="J11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D12" s="1">
         <v>-4.1366524308801202E-2</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <v>-0.30409435481494701</v>
       </c>
-      <c r="F10">
+      <c r="F12">
         <v>0.22720914745263601</v>
       </c>
-      <c r="G10">
+      <c r="G12">
         <v>-0.297552522816658</v>
       </c>
-      <c r="H10">
+      <c r="H12">
         <v>0.76604471524816697</v>
       </c>
-      <c r="J10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="I12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="D11">
+      <c r="D13">
         <v>0.43481823629979199</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E13" s="1">
         <v>9.2552709738547206E-2</v>
       </c>
-      <c r="F11">
+      <c r="F13">
         <v>0.68518764889776496</v>
       </c>
-      <c r="G11">
+      <c r="G13">
         <v>2.4476806776747901</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H13" s="1">
         <v>1.4377901761432299E-2</v>
       </c>
-      <c r="J11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="I13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="D12">
+      <c r="D14">
         <v>0.38821937833432002</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E14" s="1">
         <v>1.7707064725307701E-2</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <v>0.66498302891719097</v>
       </c>
-      <c r="G12">
+      <c r="G14">
         <v>2.0485085630336699</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H14" s="1">
         <v>4.0510193915597403E-2</v>
       </c>
-      <c r="J12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="I14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>0.30197010641017102</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E15" s="1">
         <v>9.0341256617222795E-2</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>0.48750608220295</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>2.7630011558886101</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H15" s="1">
         <v>5.7272563635972799E-3</v>
       </c>
-      <c r="J13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="I15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1">
-        <v>7.4559401511109194E-2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>4.6992770191063397E-3</v>
-      </c>
-      <c r="F14">
-        <v>0.143695279724986</v>
-      </c>
-      <c r="G14">
-        <v>2.0915447096554201</v>
-      </c>
-      <c r="H14" s="1">
-        <v>3.6479262942834503E-2</v>
-      </c>
-      <c r="J14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15">
+      <c r="D16">
         <v>0.16025573286105099</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E16" s="1">
         <v>8.2414647660944799E-3</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>0.30503031905049699</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>2.0652609163595801</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H16" s="1">
         <v>3.8898319468817701E-2</v>
       </c>
-      <c r="J15" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="I16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>26</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>0.40632939115030298</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>0.17394860880187199</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>0.59584369276837401</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>3.3081999093801699</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H17" s="1">
         <v>9.3897756805238998E-4</v>
       </c>
-      <c r="J16" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="I17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>0.359136094885042</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E18" s="1">
         <v>8.6582945986745305E-2</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>0.58167276790598199</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>2.5484430381609302</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H18" s="1">
         <v>1.08204956036377E-2</v>
       </c>
-      <c r="J17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="I18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>30</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>0.222968416</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E19" s="1">
         <v>2.4617831595972899E-2</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>0.40442880218840299</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>2.1986909509002799</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H19" s="1">
         <v>2.7899904833669401E-2</v>
       </c>
-      <c r="J18" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="I19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>32</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>0.73201968270769102</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>0.58360512947930798</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>0.83311003918163595</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>6.8970679582396599</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H20" s="1">
         <v>5.3086424145476501E-12</v>
       </c>
-      <c r="J19" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="I20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>34</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>7.2136080234656993E-2</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>-0.30852283709987</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>0.43287986498761299</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>0.36206460939795498</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>0.71730374959935805</v>
       </c>
-      <c r="J20" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="I21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>35</v>
       </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
         <v>36</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>0.40584569331961901</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E22" s="1">
         <v>-3.8733831137505399E-2</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>0.71630199726918198</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>1.7981446114534101</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H22" s="1">
         <v>7.2154094251245096E-2</v>
       </c>
-      <c r="J21" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="I22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>37</v>
       </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
         <v>38</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>0.37935328113544398</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>0.233036431119825</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>0.50887474643631403</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>4.8337976689526299</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H23" s="1">
         <v>1.3395273465999199E-6</v>
       </c>
-      <c r="J22" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="I23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" t="s">
+        <v>62</v>
+      </c>
+      <c r="L23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>39</v>
       </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
         <v>40</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>0.27</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E24" s="1">
         <v>4.8983404432237802E-2</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>0.46580934500263299</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>2.3816726571559799</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H24" s="1">
         <v>1.7234209570607301E-2</v>
       </c>
-      <c r="J23" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="I24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
         <v>28</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>0.15768945703450199</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E25" s="1">
         <v>-1.1811361101850401E-2</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>0.31838113495118697</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>1.82444238096207</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H25" s="1">
         <v>6.8085219745289499E-2</v>
       </c>
-      <c r="J24" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="I25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>42</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="1">
-        <v>7.8956250786994794E-2</v>
-      </c>
-      <c r="E25">
-        <v>-0.15626034786443199</v>
-      </c>
-      <c r="F25">
-        <v>0.30569800215466603</v>
-      </c>
-      <c r="G25">
-        <v>0.65522811211853904</v>
-      </c>
-      <c r="H25">
-        <v>0.51232089715251405</v>
-      </c>
-      <c r="J25" t="s">
-        <v>3</v>
-      </c>
-      <c r="K25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>43</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -1356,31 +1459,34 @@
       <c r="C26" t="s">
         <v>7</v>
       </c>
-      <c r="D26">
-        <v>0.25444415937914799</v>
+      <c r="D26" s="1">
+        <v>7.8956250786994794E-2</v>
       </c>
       <c r="E26">
-        <v>0.134050436432126</v>
+        <v>-0.15626034786443199</v>
       </c>
       <c r="F26">
-        <v>0.36743600443657298</v>
+        <v>0.30569800215466603</v>
       </c>
       <c r="G26">
-        <v>4.0695552188612902</v>
-      </c>
-      <c r="H26" s="1">
-        <v>4.71029751487606E-5</v>
+        <v>0.65522811211853904</v>
+      </c>
+      <c r="H26">
+        <v>0.51232089715251405</v>
+      </c>
+      <c r="I26" t="s">
+        <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -1389,30 +1495,33 @@
         <v>7</v>
       </c>
       <c r="D27">
-        <v>0.26386883216948398</v>
+        <v>0.25444415937914799</v>
       </c>
       <c r="E27">
-        <v>0.12836236034915</v>
+        <v>0.134050436432126</v>
       </c>
       <c r="F27">
-        <v>0.38970321587039197</v>
+        <v>0.36743600443657298</v>
       </c>
       <c r="G27">
-        <v>3.7517701616141998</v>
+        <v>4.0695552188612902</v>
       </c>
       <c r="H27" s="1">
-        <v>1.7559040239612E-4</v>
+        <v>4.71029751487606E-5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>7</v>
       </c>
       <c r="J27" t="s">
         <v>3</v>
       </c>
       <c r="K27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -1421,92 +1530,101 @@
         <v>7</v>
       </c>
       <c r="D28">
+        <v>0.26386883216948398</v>
+      </c>
+      <c r="E28">
+        <v>0.12836236034915</v>
+      </c>
+      <c r="F28">
+        <v>0.38970321587039197</v>
+      </c>
+      <c r="G28">
+        <v>3.7517701616141998</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1.7559040239612E-4</v>
+      </c>
+      <c r="I28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
         <v>0.30819904708260598</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>5.4084724193656002E-2</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>0.52482136648216604</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>2.3612535750407901</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H29" s="1">
         <v>1.8213272046506201E-2</v>
       </c>
-      <c r="J28" t="s">
-        <v>3</v>
-      </c>
-      <c r="K28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="I29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>46</v>
       </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
         <v>47</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>0.196113257100091</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E30" s="1">
         <v>9.9939860405145894E-2</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <v>0.288656142687714</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <v>3.9570128789965402</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H30" s="1">
         <v>7.5892840531555095E-5</v>
       </c>
-      <c r="J29" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E30">
-        <v>0.144955016659088</v>
-      </c>
-      <c r="F30">
-        <v>0.42284323431709198</v>
-      </c>
-      <c r="G30">
-        <v>3.8351530968580398</v>
-      </c>
-      <c r="H30" s="1">
-        <v>1.2548610547602501E-4</v>
+      <c r="I30" t="s">
+        <v>3</v>
       </c>
       <c r="J30" t="s">
         <v>3</v>
       </c>
       <c r="K30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -1531,14 +1649,22 @@
       <c r="H31">
         <v>0.13982936155859499</v>
       </c>
+      <c r="I31" t="s">
+        <v>3</v>
+      </c>
       <c r="J31" t="s">
         <v>3</v>
       </c>
       <c r="K31" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K31">
+    <sortState ref="A2:L31">
+      <sortCondition ref="K1:K31"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
